--- a/src/test/resources/test.xlsx
+++ b/src/test/resources/test.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" date1904="false" showObjects="all"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="500" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId2" sheetId="1" state="visible"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterate="false" iterateCount="100" iterateDelta="0.001" refMode="A1"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="221">
   <si>
     <t xml:space="preserve">No</t>
   </si>
@@ -238,7 +238,7 @@
     <t xml:space="preserve">Chọn Đặt lại</t>
   </si>
   <si>
-    <t xml:space="preserve">8 thg 5 → 9 thg 5</t>
+    <t xml:space="preserve">6 thg 6 → 7 thg 6</t>
   </si>
   <si>
     <t xml:space="preserve">Chọn Áp dụng</t>
@@ -487,10 +487,10 @@
     <t xml:space="preserve">Chọn ngày hiện tại </t>
   </si>
   <si>
-    <t xml:space="preserve">6,5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 thg 5</t>
+    <t xml:space="preserve">6,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 thg 6</t>
   </si>
   <si>
     <t xml:space="preserve">Chọn ngày tương lai 6/7</t>
@@ -683,9 +683,6 @@
   </si>
   <si>
     <t xml:space="preserve">Nhập soó có ký tự đặc biệt</t>
-  </si>
-  <si>
-    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -800,35 +797,35 @@
     </fill>
   </fills>
   <borders count="5">
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left style="dotted"/>
       <right style="dotted"/>
       <top/>
       <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="thin"/>
       <top/>
@@ -837,143 +834,143 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="26">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="2" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="2" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="2" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="4" fillId="3" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="8" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="4" fillId="3" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="4" fillId="3" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="4" fillId="0" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="4" fillId="3" fontId="9" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="10" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="8" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="166" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="11" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" name="Percent" xfId="19"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1039,28 +1036,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:H133"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="H18" activeCellId="0" pane="topLeft" sqref="H18:H31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G30" activeCellId="0" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.54296875" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="false"/>
+  <sheetFormatPr defaultColWidth="13.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="4.44" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="26.13" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="36.54" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="49.46" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="0" width="28.34" collapsed="true" outlineLevel="0"/>
-    <col min="6" max="6" customWidth="true" hidden="false" style="0" width="21.26" collapsed="true" outlineLevel="0"/>
-    <col min="7" max="7" customWidth="true" hidden="false" style="0" width="51.82" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="49.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="51.82"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.85" outlineLevel="0" r="1">
+    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1086,7 +1083,7 @@
         <v>6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="2">
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
@@ -1112,7 +1109,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
@@ -1134,7 +1131,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="n">
         <v>3</v>
       </c>
@@ -1154,7 +1151,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="5">
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="n">
         <v>4</v>
       </c>
@@ -1176,7 +1173,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="n">
         <v>5</v>
       </c>
@@ -1198,7 +1195,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="n">
         <v>6</v>
       </c>
@@ -1220,7 +1217,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
@@ -1240,7 +1237,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32.05" outlineLevel="0" r="9">
+    <row r="9" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
@@ -1262,7 +1259,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="n">
         <v>9</v>
       </c>
@@ -1286,7 +1283,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="n">
         <v>10</v>
       </c>
@@ -1304,7 +1301,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="n">
         <v>11</v>
       </c>
@@ -1324,7 +1321,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="n">
         <v>12</v>
       </c>
@@ -1344,7 +1341,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="n">
         <v>13</v>
       </c>
@@ -1364,7 +1361,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="n">
         <v>14</v>
       </c>
@@ -1384,7 +1381,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="n">
         <v>15</v>
       </c>
@@ -1404,7 +1401,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="18" t="n">
         <v>16</v>
       </c>
@@ -1418,7 +1415,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="18">
+    <row r="18" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="18" t="n">
         <v>17</v>
       </c>
@@ -1440,11 +1437,11 @@
       <c r="G18" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="H18" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="19">
+      <c r="H18" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="18" t="n">
         <v>18</v>
       </c>
@@ -1462,11 +1459,11 @@
       <c r="G19" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H19" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="20">
+      <c r="H19" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="18" t="n">
         <v>19</v>
       </c>
@@ -1484,11 +1481,11 @@
       <c r="G20" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="H20" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="21">
+      <c r="H20" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="18" t="n">
         <v>20</v>
       </c>
@@ -1506,11 +1503,11 @@
       <c r="G21" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H21" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="22">
+      <c r="H21" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="18" t="n">
         <v>21</v>
       </c>
@@ -1524,7 +1521,7 @@
       <c r="G22" s="18"/>
       <c r="H22" s="21"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="18" t="n">
         <v>22</v>
       </c>
@@ -1542,11 +1539,11 @@
       <c r="G23" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="H23" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
+      <c r="H23" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="18" t="n">
         <v>23</v>
       </c>
@@ -1564,11 +1561,11 @@
       <c r="G24" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="H24" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25">
+      <c r="H24" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="18" t="n">
         <v>24</v>
       </c>
@@ -1586,11 +1583,11 @@
       <c r="G25" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="H25" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="26">
+      <c r="H25" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="18" t="n">
         <v>25</v>
       </c>
@@ -1608,11 +1605,11 @@
       <c r="G26" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="H26" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
+      <c r="H26" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="18" t="n">
         <v>26</v>
       </c>
@@ -1628,11 +1625,11 @@
       <c r="G27" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="H27" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
+      <c r="H27" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="18" t="n">
         <v>27</v>
       </c>
@@ -1648,11 +1645,11 @@
       <c r="G28" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="H28" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="29">
+      <c r="H28" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="18" t="n">
         <v>28</v>
       </c>
@@ -1664,7 +1661,7 @@
       <c r="G29" s="18"/>
       <c r="H29" s="21"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="18" t="n">
         <v>29</v>
       </c>
@@ -1682,11 +1679,11 @@
       <c r="G30" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="H30" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="31">
+      <c r="H30" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="18" t="n">
         <v>30</v>
       </c>
@@ -1704,11 +1701,11 @@
       <c r="G31" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="H31" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="32">
+      <c r="H31" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="18" t="n">
         <v>31</v>
       </c>
@@ -1724,7 +1721,7 @@
       <c r="G32" s="18"/>
       <c r="H32" s="21"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="33">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="18" t="n">
         <v>32</v>
       </c>
@@ -1746,7 +1743,7 @@
         <v>81</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="34">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="18" t="n">
         <v>33</v>
       </c>
@@ -1762,7 +1759,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="35">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="18" t="n">
         <v>34</v>
       </c>
@@ -1782,7 +1779,7 @@
         <v>81</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="36">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="18" t="n">
         <v>35</v>
       </c>
@@ -1801,7 +1798,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="37">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="18" t="n">
         <v>36</v>
       </c>
@@ -1818,7 +1815,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="38">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="18" t="n">
         <v>37</v>
       </c>
@@ -1836,7 +1833,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="39">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="18" t="n">
         <v>38</v>
       </c>
@@ -1857,7 +1854,7 @@
         <v>81</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="40">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="18" t="n">
         <v>39</v>
       </c>
@@ -1876,7 +1873,7 @@
         <v>81</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="41">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="18" t="n">
         <v>40</v>
       </c>
@@ -1896,7 +1893,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="42">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="18" t="n">
         <v>41</v>
       </c>
@@ -1913,7 +1910,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="43">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="18" t="n">
         <v>42</v>
       </c>
@@ -1935,7 +1932,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="44">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="18" t="n">
         <v>43</v>
       </c>
@@ -1955,7 +1952,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="45">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="18" t="n">
         <v>44</v>
       </c>
@@ -1973,7 +1970,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="46">
+    <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="18" t="n">
         <v>45</v>
       </c>
@@ -1993,7 +1990,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="47">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="18" t="n">
         <v>46</v>
       </c>
@@ -2013,7 +2010,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="48">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="18" t="n">
         <v>47</v>
       </c>
@@ -2033,7 +2030,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="49">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="18" t="n">
         <v>48</v>
       </c>
@@ -2053,7 +2050,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="50">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="18" t="n">
         <v>49</v>
       </c>
@@ -2075,7 +2072,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="51">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="18" t="n">
         <v>50</v>
       </c>
@@ -2095,7 +2092,7 @@
         <v>81</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="52">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="18" t="n">
         <v>51</v>
       </c>
@@ -2115,7 +2112,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="53">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="18" t="n">
         <v>52</v>
       </c>
@@ -2135,7 +2132,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="54">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="18" t="n">
         <v>53</v>
       </c>
@@ -2157,7 +2154,7 @@
         <v>81</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="55">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="18" t="n">
         <v>54</v>
       </c>
@@ -2174,7 +2171,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="56">
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="18" t="n">
         <v>55</v>
       </c>
@@ -2193,7 +2190,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="57">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="18" t="n">
         <v>56</v>
       </c>
@@ -2211,7 +2208,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="79.85" outlineLevel="0" r="58">
+    <row r="58" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="18" t="n">
         <v>57</v>
       </c>
@@ -2233,7 +2230,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="59">
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="18" t="n">
         <v>58</v>
       </c>
@@ -2250,7 +2247,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="60">
+    <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="18" t="n">
         <v>59</v>
       </c>
@@ -2270,7 +2267,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="61">
+    <row r="61" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="18" t="n">
         <v>60</v>
       </c>
@@ -2288,7 +2285,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="62">
+    <row r="62" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="18" t="n">
         <v>61</v>
       </c>
@@ -2308,7 +2305,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="63">
+    <row r="63" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="18" t="n">
         <v>62</v>
       </c>
@@ -2326,7 +2323,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="64">
+    <row r="64" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="18" t="n">
         <v>63</v>
       </c>
@@ -2345,7 +2342,7 @@
         <v>142</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="65">
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="18" t="n">
         <v>64</v>
       </c>
@@ -2362,7 +2359,7 @@
         <v>145</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="66">
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="18" t="n">
         <v>65</v>
       </c>
@@ -2379,7 +2376,7 @@
         <v>148</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="67">
+    <row r="67" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="18" t="n">
         <v>66</v>
       </c>
@@ -2396,7 +2393,7 @@
         <v>150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="68">
+    <row r="68" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="18" t="n">
         <v>67</v>
       </c>
@@ -2412,7 +2409,7 @@
       <c r="G68" s="19"/>
       <c r="H68" s="21"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="69">
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="18" t="n">
         <v>68</v>
       </c>
@@ -2434,7 +2431,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="70">
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="18" t="n">
         <v>69</v>
       </c>
@@ -2454,7 +2451,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="71">
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="18" t="n">
         <v>70</v>
       </c>
@@ -2478,7 +2475,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="72">
+    <row r="72" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="18" t="n">
         <v>71</v>
       </c>
@@ -2500,7 +2497,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="73">
+    <row r="73" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="18" t="n">
         <v>72</v>
       </c>
@@ -2520,7 +2517,7 @@
         <v>81</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="74">
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="18" t="n">
         <v>73</v>
       </c>
@@ -2542,7 +2539,7 @@
       </c>
       <c r="H74" s="21"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="75">
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="18" t="n">
         <v>74</v>
       </c>
@@ -2558,7 +2555,7 @@
       </c>
       <c r="H75" s="21"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="76">
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="18" t="n">
         <v>75</v>
       </c>
@@ -2576,7 +2573,7 @@
       </c>
       <c r="H76" s="21"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="77">
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="18" t="n">
         <v>76</v>
       </c>
@@ -2594,7 +2591,7 @@
       </c>
       <c r="H77" s="21"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="78">
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="18" t="n">
         <v>77</v>
       </c>
@@ -2612,7 +2609,7 @@
       </c>
       <c r="H78" s="21"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="79">
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="18" t="n">
         <v>78</v>
       </c>
@@ -2630,7 +2627,7 @@
       </c>
       <c r="H79" s="21"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="80">
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="18" t="n">
         <v>79</v>
       </c>
@@ -2648,7 +2645,7 @@
       </c>
       <c r="H80" s="21"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="81">
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="18" t="n">
         <v>80</v>
       </c>
@@ -2666,7 +2663,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="82">
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="18" t="n">
         <v>81</v>
       </c>
@@ -2686,7 +2683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="83">
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="18" t="n">
         <v>82</v>
       </c>
@@ -2706,7 +2703,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="84">
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="18" t="n">
         <v>83</v>
       </c>
@@ -2724,7 +2721,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="85">
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="18" t="n">
         <v>84</v>
       </c>
@@ -2742,7 +2739,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="86">
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="18" t="n">
         <v>85</v>
       </c>
@@ -2760,7 +2757,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="87">
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="18" t="n">
         <v>86</v>
       </c>
@@ -2778,7 +2775,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="88">
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="18" t="n">
         <v>87</v>
       </c>
@@ -2798,7 +2795,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="89">
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="18" t="n">
         <v>88</v>
       </c>
@@ -2818,7 +2815,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="90">
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="18" t="n">
         <v>89</v>
       </c>
@@ -2838,7 +2835,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="91">
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="18" t="n">
         <v>90</v>
       </c>
@@ -2858,7 +2855,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="92">
+    <row r="92" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="18" t="n">
         <v>91</v>
       </c>
@@ -2878,7 +2875,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="93">
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="18" t="n">
         <v>92</v>
       </c>
@@ -2898,7 +2895,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="57.45" outlineLevel="0" r="94">
+    <row r="94" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="18" t="n">
         <v>93</v>
       </c>
@@ -2920,7 +2917,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="95">
+    <row r="95" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="18" t="n">
         <v>94</v>
       </c>
@@ -2940,7 +2937,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="96">
+    <row r="96" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="18" t="n">
         <v>95</v>
       </c>
@@ -2958,7 +2955,7 @@
       </c>
       <c r="H96" s="21"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="97">
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="25" t="s">
         <v>205</v>
       </c>
@@ -2975,7 +2972,7 @@
         <v>208</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="98">
+    <row r="98" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C98" s="25" t="s">
         <v>209</v>
       </c>
@@ -2989,12 +2986,12 @@
         <v>212</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="99">
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D99" s="0" t="s">
         <v>210</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="100">
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C100" s="0" t="s">
         <v>213</v>
       </c>
@@ -3008,42 +3005,42 @@
         <v>216</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="126">
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D126" s="0" t="s">
         <v>217</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="127">
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D127" s="0" t="s">
         <v>118</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="128">
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D128" s="0" t="s">
         <v>121</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="129">
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D129" s="0" t="s">
         <v>123</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="130">
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D130" s="0" t="s">
         <v>218</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="131">
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D131" s="0" t="s">
         <v>219</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="132">
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D132" s="0" t="s">
         <v>220</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="133">
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D133" s="0" t="s">
         <v>120</v>
       </c>
@@ -3053,13 +3050,13 @@
     <mergeCell ref="E1:F1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink display="bipbipbip@gmail.com" r:id="rId1" ref="E7"/>
-    <hyperlink display="bipbipbip@gmail.com" r:id="rId2" ref="E8"/>
-    <hyperlink display="bipbipbip112@gmail.com" r:id="rId3" ref="E9"/>
+    <hyperlink ref="E7" r:id="rId1" display="bipbipbip@gmail.com"/>
+    <hyperlink ref="E8" r:id="rId2" display="bipbipbip@gmail.com"/>
+    <hyperlink ref="E9" r:id="rId3" display="bipbipbip112@gmail.com"/>
   </hyperlinks>
-  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="true" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Chuẩn"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Chuẩn"&amp;12Page &amp;P</oddFooter>

--- a/src/test/resources/test.xlsx
+++ b/src/test/resources/test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="204">
   <si>
     <t xml:space="preserve">No</t>
   </si>
@@ -61,9 +61,6 @@
     <t xml:space="preserve">Định dạng email không hợp lệ</t>
   </si>
   <si>
-    <t xml:space="preserve">Pass</t>
-  </si>
-  <si>
     <t xml:space="preserve">Clean trường email -&gt; Nhập email sau chấm k có tên miền</t>
   </si>
   <si>
@@ -238,7 +235,7 @@
     <t xml:space="preserve">Chọn Đặt lại</t>
   </si>
   <si>
-    <t xml:space="preserve">6 thg 6 → 7 thg 6</t>
+    <t xml:space="preserve">7 thg 6 → 8 thg 6</t>
   </si>
   <si>
     <t xml:space="preserve">Chọn Áp dụng</t>
@@ -265,9 +262,6 @@
     <t xml:space="preserve">Vui lòng điền họ không bao gồm số, ký tự đặc biệt</t>
   </si>
   <si>
-    <t xml:space="preserve">Failed</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bỏ trống trường họ </t>
   </si>
   <si>
@@ -487,10 +481,10 @@
     <t xml:space="preserve">Chọn ngày hiện tại </t>
   </si>
   <si>
-    <t xml:space="preserve">6,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 thg 6</t>
+    <t xml:space="preserve">8,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 thg 6</t>
   </si>
   <si>
     <t xml:space="preserve">Chọn ngày tương lai 6/7</t>
@@ -589,13 +583,13 @@
     <t xml:space="preserve">Đánh giá phải dài ít nhất 100 ký tự</t>
   </si>
   <si>
-    <t xml:space="preserve">Nhập đánh gía = 199 ký tự → Hoàn tất </t>
+    <t xml:space="preserve">Nhập đánh gía = 99 ký tự → Hoàn tất </t>
   </si>
   <si>
     <t xml:space="preserve">yhkkvjcggff</t>
   </si>
   <si>
-    <t xml:space="preserve">Nhập đánh gía = 200 ký tự → Hoàn tất</t>
+    <t xml:space="preserve">Nhập đánh gía = 100 ký tự → Hoàn tất</t>
   </si>
   <si>
     <t xml:space="preserve">Đây là trải nghiệm rất tuyệt vời. Tôi sẽ ghé lại và tận hưởng nố nếu có cơ hội trở lai Hà Nội. Tôi nghĩ các bạn nên đến đây…Đây là trải nghiệm rất tuyệt vời. Tôi sẽ ghé lại và tận hưởng nố nếu có cơ hội trở lai Hà Nội. Tôi nghĩ các bạn nên đến đây…</t>
@@ -626,51 +620,6 @@
   </si>
   <si>
     <t xml:space="preserve">Cảm ơn bạn đã đánh giá</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đánh giấ → Viết đánh giá → /Lotte Hotel Ha Noi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đánh giá lại địa chỉ vừa đánh giá </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gần đây bạn đã đánh giá Lotte Hotel Ha Noi. Nếu bạn trở lại đó, bạn có thể đánh giấ lại sau 3 tháng kể từ lần đánh giá gần nhất</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify chức năng lập kế hoạch </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lập kế hoạch - &gt; Tạo chuyển đi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nhập tên chuyến đi → Tạo Chuyến đi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lập kế hoạch - &gt; Tạo chuyển đi → Khám phá</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nhập địa điểm muốn tới- &gt; Chọn thêm vào danh sách</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hạ Long</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đã thêm vào ABC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thêm ngày du lịch  theo lịch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chọn ngày </t>
-  </si>
-  <si>
-    <t xml:space="preserve">19,8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19 tháng 8</t>
   </si>
   <si>
     <t xml:space="preserve">Nhập số điện thoại ký tự chữ</t>
@@ -1042,11 +991,11 @@
   </sheetPr>
   <dimension ref="A1:H133"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G30" activeCellId="0" sqref="G30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
@@ -1105,9 +1054,6 @@
       <c r="G2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="n">
@@ -1116,19 +1062,16 @@
       <c r="B3" s="6"/>
       <c r="C3" s="11"/>
       <c r="D3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>12</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1138,17 +1081,14 @@
       <c r="B4" s="6"/>
       <c r="C4" s="11"/>
       <c r="D4" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1158,19 +1098,16 @@
       <c r="B5" s="13"/>
       <c r="C5" s="7"/>
       <c r="D5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1180,19 +1117,16 @@
       <c r="B6" s="13"/>
       <c r="C6" s="7"/>
       <c r="D6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>12</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1202,19 +1136,16 @@
       <c r="B7" s="13"/>
       <c r="C7" s="7"/>
       <c r="D7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>25</v>
-      </c>
       <c r="G7" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1224,17 +1155,14 @@
       <c r="B8" s="13"/>
       <c r="C8" s="7"/>
       <c r="D8" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1244,19 +1172,16 @@
       <c r="B9" s="13"/>
       <c r="C9" s="7"/>
       <c r="D9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="16" t="s">
         <v>28</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>29</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1264,23 +1189,20 @@
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="D10" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="E10" s="18" t="s">
         <v>33</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>34</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1290,15 +1212,12 @@
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
       <c r="G11" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1308,17 +1227,14 @@
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
       <c r="D12" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="18" t="s">
         <v>37</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>38</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1328,17 +1244,14 @@
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="18" t="s">
         <v>39</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>40</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1348,17 +1261,14 @@
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="18" t="s">
         <v>41</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>42</v>
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1368,17 +1278,14 @@
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="18" t="s">
         <v>43</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>44</v>
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1388,17 +1295,14 @@
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
       <c r="D16" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="18" t="s">
         <v>45</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>46</v>
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1411,34 +1315,28 @@
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
-      <c r="H17" s="0" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="18" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="18" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="D18" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="E18" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="F18" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="G18" s="18" t="s">
         <v>52</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1448,19 +1346,16 @@
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="20" t="s">
+      <c r="G19" s="18" t="s">
         <v>55</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="H19" s="0" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1470,19 +1365,16 @@
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
       <c r="D20" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="18" t="s">
+      <c r="G20" s="18" t="s">
         <v>58</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1492,19 +1384,16 @@
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
       <c r="D21" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="18" t="s">
-        <v>61</v>
-      </c>
       <c r="F21" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1513,7 +1402,7 @@
       </c>
       <c r="B22" s="18"/>
       <c r="C22" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
@@ -1528,19 +1417,16 @@
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
       <c r="D23" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E23" s="18" t="n">
         <v>1</v>
       </c>
       <c r="F23" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="18" t="s">
         <v>64</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1550,19 +1436,16 @@
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
       <c r="D24" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E24" s="18" t="n">
         <v>2</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G24" s="18" t="n">
         <v>2</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1572,19 +1455,16 @@
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
       <c r="D25" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E25" s="18" t="n">
         <v>1</v>
       </c>
       <c r="F25" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" s="18" t="s">
         <v>64</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1594,19 +1474,16 @@
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
       <c r="D26" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E26" s="18" t="n">
         <v>2</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G26" s="18" t="n">
         <v>2</v>
-      </c>
-      <c r="H26" s="0" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1616,17 +1493,14 @@
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
       <c r="D27" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E27" s="18" t="n">
         <v>0</v>
       </c>
       <c r="F27" s="18"/>
       <c r="G27" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1636,7 +1510,7 @@
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
       <c r="D28" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E28" s="18" t="n">
         <v>1</v>
@@ -1644,9 +1518,6 @@
       <c r="F28" s="18"/>
       <c r="G28" s="18" t="n">
         <v>1</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1668,19 +1539,16 @@
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
       <c r="D30" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" s="18" t="s">
         <v>71</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="F30" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="G30" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="H30" s="0" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1690,19 +1558,16 @@
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
       <c r="D31" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" s="18" t="s">
         <v>73</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F31" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="G31" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="H31" s="0" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1710,10 +1575,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="19" t="s">
         <v>75</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>76</v>
       </c>
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
@@ -1727,20 +1592,17 @@
       </c>
       <c r="B33" s="18"/>
       <c r="C33" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="E33" s="22" t="s">
         <v>78</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>79</v>
       </c>
       <c r="F33" s="18"/>
       <c r="G33" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1750,13 +1612,10 @@
       <c r="B34" s="18"/>
       <c r="C34" s="19"/>
       <c r="D34" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1766,17 +1625,14 @@
       <c r="B35" s="18"/>
       <c r="C35" s="19"/>
       <c r="D35" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F35" s="18"/>
       <c r="G35" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1785,34 +1641,28 @@
       </c>
       <c r="B36" s="18"/>
       <c r="D36" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F36" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="E36" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="F36" s="18" t="s">
-        <v>88</v>
-      </c>
       <c r="G36" s="18"/>
-      <c r="H36" s="0" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="18" t="n">
         <v>36</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="H37" s="0" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1821,16 +1671,13 @@
       </c>
       <c r="B38" s="18"/>
       <c r="C38" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G38" s="18" t="s">
         <v>91</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="G38" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="H38" s="0" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1839,19 +1686,16 @@
       </c>
       <c r="B39" s="18"/>
       <c r="D39" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="H39" s="0" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1860,17 +1704,14 @@
       </c>
       <c r="B40" s="18"/>
       <c r="D40" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F40" s="18"/>
       <c r="G40" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="H40" s="0" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1880,18 +1721,15 @@
       <c r="B41" s="18"/>
       <c r="C41" s="19"/>
       <c r="D41" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F41" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="E41" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="F41" s="18" t="s">
-        <v>88</v>
-      </c>
       <c r="G41" s="18"/>
-      <c r="H41" s="0" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="18" t="n">
@@ -1900,15 +1738,12 @@
       <c r="B42" s="18"/>
       <c r="C42" s="19"/>
       <c r="D42" s="18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F42" s="18"/>
-      <c r="H42" s="0" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="18" t="n">
@@ -1916,7 +1751,7 @@
       </c>
       <c r="B43" s="18"/>
       <c r="C43" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>9</v>
@@ -1926,10 +1761,7 @@
       </c>
       <c r="F43" s="15"/>
       <c r="G43" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="H43" s="0" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1939,17 +1771,14 @@
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
       <c r="D44" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="F44" s="15"/>
       <c r="G44" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="H44" s="0" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1959,15 +1788,12 @@
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
       <c r="D45" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="15"/>
       <c r="G45" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="H45" s="0" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1977,17 +1803,14 @@
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
       <c r="D46" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="F46" s="15"/>
       <c r="G46" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="H46" s="0" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1997,17 +1820,14 @@
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
       <c r="D47" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="F47" s="15"/>
       <c r="G47" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="H47" s="0" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2017,18 +1837,15 @@
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
       <c r="D48" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F48" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="E48" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F48" s="15" t="s">
-        <v>104</v>
-      </c>
       <c r="G48" s="14"/>
-      <c r="H48" s="0" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="18" t="n">
@@ -2036,18 +1853,15 @@
       </c>
       <c r="B49" s="18"/>
       <c r="C49" s="18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E49" s="18"/>
       <c r="F49" s="18"/>
       <c r="G49" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="H49" s="0" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2056,20 +1870,17 @@
       </c>
       <c r="B50" s="18"/>
       <c r="C50" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="E50" s="18" t="s">
         <v>108</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="E50" s="18" t="s">
-        <v>110</v>
       </c>
       <c r="F50" s="18"/>
       <c r="G50" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="H50" s="0" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2079,17 +1890,14 @@
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
       <c r="D51" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E51" s="18" t="n">
         <v>78976567</v>
       </c>
       <c r="F51" s="18"/>
       <c r="G51" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="H51" s="0" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2099,18 +1907,15 @@
       <c r="B52" s="18"/>
       <c r="C52" s="18"/>
       <c r="D52" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E52" s="18" t="n">
         <v>678909765</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G52" s="18"/>
-      <c r="H52" s="0" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="18" t="n">
@@ -2119,17 +1924,14 @@
       <c r="B53" s="18"/>
       <c r="C53" s="18"/>
       <c r="D53" s="18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F53" s="18"/>
       <c r="G53" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="H53" s="0" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2138,20 +1940,17 @@
       </c>
       <c r="B54" s="18"/>
       <c r="C54" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="E54" s="22" t="s">
         <v>117</v>
-      </c>
-      <c r="D54" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="E54" s="22" t="s">
-        <v>119</v>
       </c>
       <c r="F54" s="18"/>
       <c r="G54" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="H54" s="0" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2161,14 +1960,11 @@
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
       <c r="D55" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E55" s="23"/>
       <c r="G55" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="H55" s="0" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2177,17 +1973,14 @@
       </c>
       <c r="B56" s="18"/>
       <c r="D56" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E56" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F56" s="18"/>
       <c r="G56" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="H56" s="0" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2196,16 +1989,13 @@
       </c>
       <c r="B57" s="18"/>
       <c r="D57" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E57" s="22" t="n">
         <v>789654</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="H57" s="0" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2214,20 +2004,17 @@
       </c>
       <c r="B58" s="18"/>
       <c r="C58" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="E58" s="18" t="s">
         <v>124</v>
-      </c>
-      <c r="D58" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="E58" s="18" t="s">
-        <v>126</v>
       </c>
       <c r="F58" s="18"/>
       <c r="G58" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="H58" s="0" t="s">
-        <v>13</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2237,14 +2024,11 @@
       <c r="B59" s="18"/>
       <c r="C59" s="19"/>
       <c r="D59" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F59" s="18"/>
       <c r="G59" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="H59" s="0" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2254,17 +2038,14 @@
       <c r="B60" s="18"/>
       <c r="C60" s="19"/>
       <c r="D60" s="19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E60" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F60" s="18"/>
       <c r="G60" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="H60" s="0" t="s">
-        <v>13</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2272,17 +2053,14 @@
         <v>60</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E61" s="18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F61" s="18"/>
       <c r="G61" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="H61" s="0" t="s">
-        <v>13</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2292,17 +2070,14 @@
       <c r="B62" s="18"/>
       <c r="C62" s="19"/>
       <c r="D62" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E62" s="18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F62" s="18"/>
       <c r="G62" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="H62" s="0" t="s">
-        <v>13</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2312,34 +2087,31 @@
       <c r="B63" s="18"/>
       <c r="C63" s="19"/>
       <c r="D63" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F63" s="18"/>
       <c r="G63" s="18"/>
-      <c r="H63" s="0" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="64" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="18" t="n">
         <v>63</v>
       </c>
       <c r="B64" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D64" s="18" t="s">
         <v>139</v>
-      </c>
-      <c r="C64" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="D64" s="18" t="s">
-        <v>141</v>
       </c>
       <c r="E64" s="24"/>
       <c r="F64" s="18"/>
       <c r="G64" s="19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2349,14 +2121,14 @@
       <c r="B65" s="18"/>
       <c r="C65" s="7"/>
       <c r="D65" s="18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F65" s="18"/>
       <c r="G65" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2366,14 +2138,14 @@
       <c r="B66" s="18"/>
       <c r="C66" s="19"/>
       <c r="D66" s="18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F66" s="18"/>
       <c r="G66" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2383,14 +2155,14 @@
       <c r="B67" s="18"/>
       <c r="C67" s="19"/>
       <c r="D67" s="19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F67" s="18"/>
       <c r="G67" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2398,10 +2170,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D68" s="18"/>
       <c r="E68" s="18"/>
@@ -2415,20 +2187,17 @@
       </c>
       <c r="B69" s="19"/>
       <c r="C69" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="D69" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="E69" s="18" t="s">
         <v>153</v>
-      </c>
-      <c r="D69" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="E69" s="18" t="s">
-        <v>155</v>
       </c>
       <c r="F69" s="18"/>
       <c r="G69" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="H69" s="0" t="s">
-        <v>13</v>
+        <v>154</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2438,17 +2207,14 @@
       <c r="B70" s="19"/>
       <c r="C70" s="19"/>
       <c r="D70" s="18" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F70" s="18"/>
       <c r="G70" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="H70" s="0" t="s">
-        <v>13</v>
+        <v>157</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2457,44 +2223,38 @@
       </c>
       <c r="B71" s="19"/>
       <c r="C71" s="19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E71" s="18" t="n">
         <v>0</v>
       </c>
       <c r="F71" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G71" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="G71" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="H71" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="18" t="n">
         <v>71</v>
       </c>
       <c r="B72" s="19"/>
       <c r="C72" s="19"/>
       <c r="D72" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E72" s="18" t="n">
         <v>2</v>
       </c>
       <c r="F72" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G72" s="18" t="n">
         <v>2</v>
-      </c>
-      <c r="H72" s="0" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2503,39 +2263,37 @@
       </c>
       <c r="B73" s="19"/>
       <c r="C73" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D73" s="19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E73" s="18"/>
       <c r="F73" s="18"/>
       <c r="G73" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="H73" s="21" t="s">
-        <v>81</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="H73" s="21"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="18" t="n">
         <v>73</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D74" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E74" s="18" t="s">
         <v>33</v>
-      </c>
-      <c r="E74" s="18" t="s">
-        <v>34</v>
       </c>
       <c r="F74" s="18"/>
       <c r="G74" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H74" s="21"/>
     </row>
@@ -2546,12 +2304,12 @@
       <c r="B75" s="18"/>
       <c r="C75" s="18"/>
       <c r="D75" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E75" s="18"/>
       <c r="F75" s="18"/>
       <c r="G75" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H75" s="21"/>
     </row>
@@ -2562,14 +2320,14 @@
       <c r="B76" s="18"/>
       <c r="C76" s="18"/>
       <c r="D76" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E76" s="18" t="s">
         <v>37</v>
-      </c>
-      <c r="E76" s="18" t="s">
-        <v>38</v>
       </c>
       <c r="F76" s="18"/>
       <c r="G76" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H76" s="21"/>
     </row>
@@ -2580,14 +2338,14 @@
       <c r="B77" s="18"/>
       <c r="C77" s="18"/>
       <c r="D77" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E77" s="18" t="s">
         <v>39</v>
-      </c>
-      <c r="E77" s="18" t="s">
-        <v>40</v>
       </c>
       <c r="F77" s="18"/>
       <c r="G77" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H77" s="21"/>
     </row>
@@ -2598,14 +2356,14 @@
       <c r="B78" s="18"/>
       <c r="C78" s="18"/>
       <c r="D78" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E78" s="18" t="s">
         <v>41</v>
-      </c>
-      <c r="E78" s="18" t="s">
-        <v>42</v>
       </c>
       <c r="F78" s="18"/>
       <c r="G78" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H78" s="21"/>
     </row>
@@ -2616,14 +2374,14 @@
       <c r="B79" s="18"/>
       <c r="C79" s="18"/>
       <c r="D79" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E79" s="18" t="s">
         <v>43</v>
-      </c>
-      <c r="E79" s="18" t="s">
-        <v>44</v>
       </c>
       <c r="F79" s="18"/>
       <c r="G79" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H79" s="21"/>
     </row>
@@ -2634,14 +2392,14 @@
       <c r="B80" s="18"/>
       <c r="C80" s="18"/>
       <c r="D80" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E80" s="18" t="s">
         <v>45</v>
-      </c>
-      <c r="E80" s="18" t="s">
-        <v>46</v>
       </c>
       <c r="F80" s="18"/>
       <c r="G80" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H80" s="21"/>
     </row>
@@ -2650,18 +2408,15 @@
         <v>80</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D81" s="18"/>
       <c r="E81" s="18"/>
       <c r="F81" s="18"/>
       <c r="G81" s="18"/>
-      <c r="H81" s="0" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="18" t="n">
@@ -2669,18 +2424,15 @@
       </c>
       <c r="B82" s="18"/>
       <c r="C82" s="18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E82" s="18"/>
       <c r="F82" s="18"/>
       <c r="G82" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="H82" s="0" t="s">
-        <v>13</v>
+        <v>171</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2690,17 +2442,14 @@
       <c r="B83" s="18"/>
       <c r="C83" s="18"/>
       <c r="D83" s="18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E83" s="18" t="n">
         <v>1</v>
       </c>
       <c r="F83" s="18"/>
       <c r="G83" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="H83" s="0" t="s">
-        <v>13</v>
+        <v>173</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2715,10 +2464,7 @@
       </c>
       <c r="F84" s="18"/>
       <c r="G84" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="H84" s="0" t="s">
-        <v>13</v>
+        <v>174</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2733,10 +2479,7 @@
       </c>
       <c r="F85" s="18"/>
       <c r="G85" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="H85" s="0" t="s">
-        <v>13</v>
+        <v>175</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2751,10 +2494,7 @@
       </c>
       <c r="F86" s="18"/>
       <c r="G86" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="H86" s="0" t="s">
-        <v>13</v>
+        <v>176</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2769,10 +2509,7 @@
       </c>
       <c r="F87" s="18"/>
       <c r="G87" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="H87" s="0" t="s">
-        <v>13</v>
+        <v>177</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2781,18 +2518,15 @@
       </c>
       <c r="B88" s="18"/>
       <c r="C88" s="18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D88" s="18" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E88" s="18"/>
       <c r="F88" s="18"/>
       <c r="G88" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="H88" s="0" t="s">
-        <v>13</v>
+        <v>180</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2802,17 +2536,14 @@
       <c r="B89" s="18"/>
       <c r="C89" s="18"/>
       <c r="D89" s="18" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E89" s="18" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F89" s="18"/>
       <c r="G89" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="H89" s="0" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2821,18 +2552,15 @@
       </c>
       <c r="B90" s="18"/>
       <c r="C90" s="18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D90" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E90" s="18"/>
       <c r="F90" s="18"/>
       <c r="G90" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="H90" s="0" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2842,17 +2570,14 @@
       <c r="B91" s="18"/>
       <c r="C91" s="18"/>
       <c r="D91" s="18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E91" s="18" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F91" s="18"/>
       <c r="G91" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="H91" s="0" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2862,17 +2587,14 @@
       <c r="B92" s="18"/>
       <c r="C92" s="18"/>
       <c r="D92" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E92" s="19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F92" s="18"/>
       <c r="G92" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="H92" s="0" t="s">
-        <v>13</v>
+        <v>190</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2881,18 +2603,15 @@
       </c>
       <c r="B93" s="18"/>
       <c r="C93" s="18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D93" s="18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E93" s="18"/>
       <c r="F93" s="18"/>
       <c r="G93" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="H93" s="0" t="s">
-        <v>13</v>
+        <v>193</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2902,19 +2621,16 @@
       <c r="B94" s="18"/>
       <c r="C94" s="18"/>
       <c r="D94" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E94" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="F94" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="E94" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="F94" s="18" t="s">
-        <v>198</v>
-      </c>
       <c r="G94" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="H94" s="0" t="s">
-        <v>13</v>
+        <v>195</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2924,125 +2640,70 @@
       <c r="B95" s="18"/>
       <c r="C95" s="18"/>
       <c r="D95" s="19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E95" s="19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F95" s="18"/>
       <c r="G95" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="H95" s="0" t="s">
-        <v>13</v>
+        <v>199</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="18" t="n">
-        <v>95</v>
-      </c>
+      <c r="A96" s="18"/>
       <c r="B96" s="18"/>
-      <c r="C96" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="D96" s="18" t="s">
-        <v>203</v>
-      </c>
+      <c r="C96" s="19"/>
+      <c r="D96" s="18"/>
       <c r="E96" s="18"/>
       <c r="F96" s="18"/>
-      <c r="G96" s="19" t="s">
-        <v>204</v>
-      </c>
+      <c r="G96" s="19"/>
       <c r="H96" s="21"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="C97" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="D97" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="E97" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="G97" s="0" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C98" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="D98" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="E98" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="G98" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D99" s="0" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C100" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="D100" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="E100" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="G100" s="0" t="s">
-        <v>216</v>
-      </c>
+      <c r="B97" s="25"/>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C98" s="25"/>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D126" s="0" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D127" s="0" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D128" s="0" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D129" s="0" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D130" s="0" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D131" s="0" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D132" s="0" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D133" s="0" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/test.xlsx
+++ b/src/test/resources/test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="203">
   <si>
     <t xml:space="preserve">No</t>
   </si>
@@ -325,7 +325,7 @@
     <t xml:space="preserve">Nhập email đúng định dạng</t>
   </si>
   <si>
-    <t xml:space="preserve">bipbipbip1@gmail.com</t>
+    <t xml:space="preserve">bipbipbip20@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Không</t>
@@ -446,9 +446,6 @@
   </si>
   <si>
     <t xml:space="preserve">Nhập mail đã tồn tại → Tiếp tục với email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bipbipbipq@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Nhập mật khẩu của bạn</t>
@@ -991,11 +988,11 @@
   </sheetPr>
   <dimension ref="A1:H133"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H96"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E65" activeCellId="0" sqref="E65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.59765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
@@ -2124,11 +2121,11 @@
         <v>141</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="F65" s="18"/>
       <c r="G65" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2138,14 +2135,14 @@
       <c r="B66" s="18"/>
       <c r="C66" s="19"/>
       <c r="D66" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="E66" s="18" t="s">
         <v>144</v>
-      </c>
-      <c r="E66" s="18" t="s">
-        <v>145</v>
       </c>
       <c r="F66" s="18"/>
       <c r="G66" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2155,14 +2152,14 @@
       <c r="B67" s="18"/>
       <c r="C67" s="19"/>
       <c r="D67" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E67" s="18" t="s">
         <v>136</v>
       </c>
       <c r="F67" s="18"/>
       <c r="G67" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2170,10 +2167,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C68" s="19" t="s">
         <v>149</v>
-      </c>
-      <c r="C68" s="19" t="s">
-        <v>150</v>
       </c>
       <c r="D68" s="18"/>
       <c r="E68" s="18"/>
@@ -2187,17 +2184,17 @@
       </c>
       <c r="B69" s="19"/>
       <c r="C69" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D69" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="D69" s="18" t="s">
+      <c r="E69" s="18" t="s">
         <v>152</v>
-      </c>
-      <c r="E69" s="18" t="s">
-        <v>153</v>
       </c>
       <c r="F69" s="18"/>
       <c r="G69" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2207,14 +2204,14 @@
       <c r="B70" s="19"/>
       <c r="C70" s="19"/>
       <c r="D70" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="E70" s="18" t="s">
         <v>155</v>
-      </c>
-      <c r="E70" s="18" t="s">
-        <v>156</v>
       </c>
       <c r="F70" s="18"/>
       <c r="G70" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2223,10 +2220,10 @@
       </c>
       <c r="B71" s="19"/>
       <c r="C71" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="D71" s="18" t="s">
         <v>158</v>
-      </c>
-      <c r="D71" s="18" t="s">
-        <v>159</v>
       </c>
       <c r="E71" s="18" t="n">
         <v>0</v>
@@ -2245,7 +2242,7 @@
       <c r="B72" s="19"/>
       <c r="C72" s="19"/>
       <c r="D72" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E72" s="18" t="n">
         <v>2</v>
@@ -2263,15 +2260,15 @@
       </c>
       <c r="B73" s="19"/>
       <c r="C73" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="D73" s="19" t="s">
         <v>161</v>
-      </c>
-      <c r="D73" s="19" t="s">
-        <v>162</v>
       </c>
       <c r="E73" s="18"/>
       <c r="F73" s="18"/>
       <c r="G73" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H73" s="21"/>
     </row>
@@ -2280,10 +2277,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C74" s="18" t="s">
         <v>164</v>
-      </c>
-      <c r="C74" s="18" t="s">
-        <v>165</v>
       </c>
       <c r="D74" s="18" t="s">
         <v>32</v>
@@ -2309,7 +2306,7 @@
       <c r="E75" s="18"/>
       <c r="F75" s="18"/>
       <c r="G75" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H75" s="21"/>
     </row>
@@ -2408,10 +2405,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="C81" s="19" t="s">
         <v>167</v>
-      </c>
-      <c r="C81" s="19" t="s">
-        <v>168</v>
       </c>
       <c r="D81" s="18"/>
       <c r="E81" s="18"/>
@@ -2424,15 +2421,15 @@
       </c>
       <c r="B82" s="18"/>
       <c r="C82" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="D82" s="18" t="s">
         <v>169</v>
-      </c>
-      <c r="D82" s="18" t="s">
-        <v>170</v>
       </c>
       <c r="E82" s="18"/>
       <c r="F82" s="18"/>
       <c r="G82" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2442,14 +2439,14 @@
       <c r="B83" s="18"/>
       <c r="C83" s="18"/>
       <c r="D83" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E83" s="18" t="n">
         <v>1</v>
       </c>
       <c r="F83" s="18"/>
       <c r="G83" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2464,7 +2461,7 @@
       </c>
       <c r="F84" s="18"/>
       <c r="G84" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2479,7 +2476,7 @@
       </c>
       <c r="F85" s="18"/>
       <c r="G85" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2494,7 +2491,7 @@
       </c>
       <c r="F86" s="18"/>
       <c r="G86" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2509,7 +2506,7 @@
       </c>
       <c r="F87" s="18"/>
       <c r="G87" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2518,15 +2515,15 @@
       </c>
       <c r="B88" s="18"/>
       <c r="C88" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D88" s="18" t="s">
         <v>178</v>
-      </c>
-      <c r="D88" s="18" t="s">
-        <v>179</v>
       </c>
       <c r="E88" s="18"/>
       <c r="F88" s="18"/>
       <c r="G88" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2536,14 +2533,14 @@
       <c r="B89" s="18"/>
       <c r="C89" s="18"/>
       <c r="D89" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="E89" s="18" t="s">
         <v>181</v>
-      </c>
-      <c r="E89" s="18" t="s">
-        <v>182</v>
       </c>
       <c r="F89" s="18"/>
       <c r="G89" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2552,15 +2549,15 @@
       </c>
       <c r="B90" s="18"/>
       <c r="C90" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="D90" s="18" t="s">
         <v>184</v>
-      </c>
-      <c r="D90" s="18" t="s">
-        <v>185</v>
       </c>
       <c r="E90" s="18"/>
       <c r="F90" s="18"/>
       <c r="G90" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2570,14 +2567,14 @@
       <c r="B91" s="18"/>
       <c r="C91" s="18"/>
       <c r="D91" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="E91" s="18" t="s">
         <v>187</v>
-      </c>
-      <c r="E91" s="18" t="s">
-        <v>188</v>
       </c>
       <c r="F91" s="18"/>
       <c r="G91" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2587,14 +2584,14 @@
       <c r="B92" s="18"/>
       <c r="C92" s="18"/>
       <c r="D92" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="E92" s="19" t="s">
         <v>189</v>
-      </c>
-      <c r="E92" s="19" t="s">
-        <v>190</v>
       </c>
       <c r="F92" s="18"/>
       <c r="G92" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2603,15 +2600,15 @@
       </c>
       <c r="B93" s="18"/>
       <c r="C93" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="D93" s="18" t="s">
         <v>191</v>
-      </c>
-      <c r="D93" s="18" t="s">
-        <v>192</v>
       </c>
       <c r="E93" s="18"/>
       <c r="F93" s="18"/>
       <c r="G93" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2621,16 +2618,16 @@
       <c r="B94" s="18"/>
       <c r="C94" s="18"/>
       <c r="D94" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="E94" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="E94" s="19" t="s">
+      <c r="F94" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="F94" s="18" t="s">
-        <v>196</v>
-      </c>
       <c r="G94" s="19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2640,14 +2637,14 @@
       <c r="B95" s="18"/>
       <c r="C95" s="18"/>
       <c r="D95" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="E95" s="19" t="s">
         <v>197</v>
-      </c>
-      <c r="E95" s="19" t="s">
-        <v>198</v>
       </c>
       <c r="F95" s="18"/>
       <c r="G95" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2668,7 +2665,7 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D126" s="0" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2688,17 +2685,17 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D130" s="0" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D131" s="0" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D132" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2714,6 +2711,8 @@
     <hyperlink ref="E7" r:id="rId1" display="bipbipbip@gmail.com"/>
     <hyperlink ref="E8" r:id="rId2" display="bipbipbip@gmail.com"/>
     <hyperlink ref="E9" r:id="rId3" display="bipbipbip112@gmail.com"/>
+    <hyperlink ref="E48" r:id="rId4" display="bipbipbip20@gmail"/>
+    <hyperlink ref="E65" r:id="rId5" display="bipbipbip20@gmail"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
